--- a/biology/Biologie cellulaire et moléculaire/Polymorphisme_de_longueur_des_fragments_de_restriction/Polymorphisme_de_longueur_des_fragments_de_restriction.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Polymorphisme_de_longueur_des_fragments_de_restriction/Polymorphisme_de_longueur_des_fragments_de_restriction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>En biologie moléculaire, le polymorphisme de longueur des fragments de restriction (ou RFLP, de l'anglais restriction fragment length polymorphism) est utilisé dans deux sens :
 comme une caractéristique des molécules d'ADN permettant de les distinguer les unes des autres,
@@ -512,7 +524,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Étapes de la technique RFLP :
 extraction d'ADN,
@@ -550,7 +564,9 @@
           <t>Résultat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La distance entre deux sites de coupure de l'enzyme de restriction (site de restriction) varie selon les individus (du fait du polymorphisme des individus) : de ce fait la longueur des fragments de restriction varie. Les positions de certaines bandes d'ADN (sur le gel d'électrophorèse) seront donc différentes d'un individu à l'autre. Le polymorphisme existant entre individus d'une même espèce peut être ainsi visualisé grâce au polymorphisme de leur ADN.
 Cette technique permet de mettre en évidence les "particularités" d'un individu. Elle permet également de montrer les relations génétiques qui peuvent exister entre individus, du fait de la transmission des caractères génétiques de parents à enfant. La technique est également utilisée pour étudier les relations entre différentes espèces.
